--- a/biology/Zoologie/Gambelia_wislizenii/Gambelia_wislizenii.xlsx
+++ b/biology/Zoologie/Gambelia_wislizenii/Gambelia_wislizenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gambelia wislizenii est une espèce de sauriens de la famille des Crotaphytidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gambelia wislizenii est une espèce de sauriens de la famille des Crotaphytidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Mexique en Basse-Californie, au Sonora, au Chihuahua, au Durango et au Coahuila ;
 aux États-Unis en Californie, en Oregon, en Idaho, au Nevada, en Arizona, au Nouveau-Mexique, en Utah, au Colorado et au Texas.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille varie de 30 à 35 cm (queue comprise). La tête est massive avec un museau légèrement pointu. Les membres sont bien développés et la queue est très longue.
 Le fond de la robe est gris, jaunâtre ou brun avec des taches plus foncées comme la robe d’un léopard d’où son nom commun.
@@ -584,9 +600,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (28 juillet 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (28 juillet 2012) :
 Gambelia wislizenii maculosus (Tanner &amp; Banta, 1977)
 Gambelia wislizenii punctata (Tanner &amp; Banta, 1963)
 Gambelia wislizenii wislizenii Baird &amp; Girard, 1852</t>
@@ -617,9 +635,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Frederick Adolph Wislizenius (1810-1889), un physicien d'origine allemande[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Frederick Adolph Wislizenius (1810-1889), un physicien d'origine allemande.
 </t>
         </is>
       </c>
@@ -648,7 +668,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1852 : Characteristics of some new reptiles in the museum of the Smithsonian Institution. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 68-70 (texte intégral).
 Tanner &amp; Banta, 1963 : The systematics of Crotaphytus wislizeni, the leopard lizards. Part I. A redescription of Crotaphytus wislizeni wislizeni Baird and Girard, and a description of a new subspecies from the Upper Colorado River Basin. Great Basin Naturalist, vol. 23, n. 2/4, p. 129-148 (texte intégral).
